--- a/src/test/resources/testData/testdata.xlsx
+++ b/src/test/resources/testData/testdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juhim\eclipse-workspace\AutomationPOC\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juhim\eclipse-workspace\TestFramework\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8759D55-5C49-4340-8A85-365F381F77AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99917844-1F67-416A-9615-6D42FA40CE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4F85DF42-A78A-4CCA-8C6C-EE8CA2FC898F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>url</t>
   </si>
@@ -45,26 +45,32 @@
     <t>password</t>
   </si>
   <si>
-    <t>Verify that a new user log in, and place an order</t>
-  </si>
-  <si>
     <t>Scenarioname</t>
   </si>
   <si>
-    <t>test_01</t>
-  </si>
-  <si>
     <t>Test_001#</t>
   </si>
   <si>
     <t>https://www.advantageonlineshopping.com/#/</t>
+  </si>
+  <si>
+    <t>Search product and place an order</t>
+  </si>
+  <si>
+    <t>TestUser</t>
+  </si>
+  <si>
+    <t>SearchItem</t>
+  </si>
+  <si>
+    <t>BEATS STUDIO 2 OVER-EAR MATTE BLACK HEADPHONES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +94,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -110,10 +128,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -429,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0C43FE-6AE9-4C53-A0EB-CAB19FD6FC96}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -440,9 +460,9 @@
     <col min="1" max="1" width="48.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -453,19 +473,25 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
